--- a/biology/Botanique/Maraval/Maraval.xlsx
+++ b/biology/Botanique/Maraval/Maraval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Maraval  est le nom d'un hybride naturel de châtaignier (synonyme CA 74), croisement entre un châtaignier européen (Castanea sativa) et japonais (Castanea crenata).
@@ -514,7 +526,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre de vigueur moyenne tend à flécher sans se ramifier. Il est peu exigeant pour la qualité du sol et met à fruits vers 4 à 5 ans.
 Ses fleurs mâles sont longistaminées mais son pollen est peu fertile.
@@ -546,7 +560,9 @@
           <t>Aire de culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Régions chaudes telles que Gironde, Dordogne, Pyrénées-Atlantiques, Midi-Pyrénées sans dépasser 250 à 300 m d'altitude, mais craint le gel dans les situations océaniques où l'hiver est trop doux.
 </t>
@@ -577,13 +593,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Son débourrement précoce lui fait craindre le gel printanier. Il résiste bien à la rouille des feuilles et à la maladie de l'encre[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Son débourrement précoce lui fait craindre le gel printanier. Il résiste bien à la rouille des feuilles et à la maladie de l'encre.
 Sa vigueur moyenne et ses faibles exigences permettent une densification au verger plus importante que d'autres hybrides tel Marigoule.
 Comme porte-greffe, il est :
 compatible avec les variétés Bouche de Bétizac, Bournette, Précoce Migoule, Maridonne, Fertil
-incompatible avec Marigoule, Primato[1]</t>
+incompatible avec Marigoule, Primato</t>
         </is>
       </c>
     </row>
@@ -611,7 +629,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>« http://www.coulie.com/fr/chataigniers/maraval.html »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)</t>
         </is>
